--- a/GeneticProgrammingPortfolio/experiment-data/1 - math/with iflt/23-00-27/data.xlsx
+++ b/GeneticProgrammingPortfolio/experiment-data/1 - math/with iflt/23-00-27/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\GPP\GeneticProgrammingPortfolio\experiment-data\exp-1\with iflt\23-00-27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\GitHub\GPP\GeneticProgrammingPortfolio\experiment-data\1 - math\with iflt\23-00-27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Math, with IFLT" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="1" r:id="rId2"/>
+    <sheet name="Chart1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1785,7 +1786,1667 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DJIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$A$2:$A$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>0.84026811000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83498734399999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85444194600000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86634980399999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86080725199999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83614498199999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84682125600000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83154587999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82724681099999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.820568721</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83020295200000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80361808499999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.80763326899999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82765563900000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82657704700000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84360672999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86945043700000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87061997400000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.88099791400000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89276637999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89563412499999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89966035799999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.89541313700000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.88205695699999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.90050096300000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.90680932299999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.90804770599999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.90690621800000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.90278393999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.93002922099999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.94341940000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.94140925799999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.93787174900000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95470849099999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.95269239999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.94485072299999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95889366600000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.96649140600000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.96219318799999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.96184045699999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.96582674199999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.950540316</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.95289723900000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.94813834500000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.92653675999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.90929713899999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92950650000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.93005811999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.95110808499999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.95073325500000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.958472938</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.95582703099999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.95748529199999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.95758728599999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.956320854</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.94964276400000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.96395854299999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.95047232000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.92905262399999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.96049752899999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.95054286600000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.93673026000000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.93029610699999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.93730397899999995</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.91099449700000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.91977367399999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.933067808</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.95212208099999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.93059699100000004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.89937902300000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.90983941000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.92391890099999996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.93967195199999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.93538478300000005</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.933353392</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.94973285900000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.93977904599999995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.92457846499999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1598-451F-AF42-581163FB2424}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ENS_AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>0.92331621217424331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92273750533118382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92213745916064505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9214917192556219</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92081745758972722</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9200803290120193</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91929738847078468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91844057314955496</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91755140457305506</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91658537061231093</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91556790598465332</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91444374683449103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91324574175934958</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91199633158407278</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.91055572692629883</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.90905291744548633</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.90745495558426592</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90573718444537066</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90382963053293119</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.90170330575667601</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.90907325405068728</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.91527240196673143</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91964983214514417</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92278396523306006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92503281619038169</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92668422034292908</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92790044056073762</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.92883741921802798</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.92955599890470386</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.93013661301700601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.93058612616463476</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.93095837035331452</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.93532386048393734</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.93563349832491505</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9358717754486382</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.93612653426307602</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.93627645322263875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.93644537203290412</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.9366131974188211</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.93673897142798801</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.93687609393807847</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.93699462201654293</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9371387111102365</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.93771963547728931</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.93738020774617148</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.93748474464465714</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.93760320001149566</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.93771488717916662</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.93784313056399116</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.93795580496911057</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.93807387496996875</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.94063584562636204</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.94066407598398027</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.94072908027179458</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.94077668688751437</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.94086565757988772</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.94097260808031724</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.9411432471574166</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.94119722298009045</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.94131920579755279</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.94139917106106696</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.94157971941141805</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.94170961920531915</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.94184859574845259</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.94196987040938607</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.94210760994037113</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.94224021120408985</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.94239176133130742</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.94252985209218809</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.94267326077877167</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.94280250314812486</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.94294965762037186</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.94309142998301076</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.94324750851311134</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.94338751405589516</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.94353393045676437</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.94364886371924983</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.94381998027905123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1598-451F-AF42-581163FB2424}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ENS_MED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$C$2:$C$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>0.9315075980855666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93148823528785407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93146731523028503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93144486478590149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93142092730347692</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93139556342603502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93136885410431081</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93134090244859546</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9313118317265201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93128177992537986</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93125089400510974</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93121932682134334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93118723687586447</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9311547881711657</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93112214714756636</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9310894762199996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93105692646947313</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93102463281084702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93099271278091433</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93096126698518344</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.93093037804605139</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.93090010667063972</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.93087048654065174</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.93084152127902842</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.93081318535424074</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.93078542772960171</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.93075817513888282</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.93073133279945508</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.93070478326599881</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.93067838630972088</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.93065198218615275</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.93062539792464982</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.93146075831023789</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.93141763103829289</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.93137391405281234</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.93132951748540371</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.93128435285175504</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.93123833611662743</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.93151714173294664</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.93202908264495243</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.93245057176046853</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.93279800563779769</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9330843821585818</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.93498775513899679</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.93351346033295368</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.93367128145888889</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.93379906671153845</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.93390134975202788</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.93398187860502824</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.93404377224700486</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.93408964331217548</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.93711017722687595</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.93721701608002239</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.937303524483866</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.93737244932420061</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.93742617060930122</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.93746676512331339</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.93749605804908609</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.93751566497130112</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.93752702614668226</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.93753143452588239</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.93753005870138661</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.93752396171524222</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.93751411647308158</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.93750141836435419</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.93748669557355924</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.93747071747648847</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.93745420144363345</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.93747155212269695</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.93789738598900729</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.93832764137398716</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.9387621877050325</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.93920089493134118</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.93964363359453795</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.94009027489836205</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.94054069077734515</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.94099475396443477</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.94145233805748862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1598-451F-AF42-581163FB2424}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ENS_MIN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$D$2:$D$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>0.85327853243416119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85321910191239991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85315934958045636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85309927703077215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85303888584808818</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85297817760949168</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85291715388446343</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85285581623492346</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85279416621527793</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85273220537246441</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85266993524599766</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85260735736801463</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85254447326331939</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85248128444942761</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85241779243661076</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85235399872794027</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85228990481933076</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85222551219958365</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.85216082235043</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8520958367465733</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.85203055685573181</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85196498413868071</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.8518991200492938</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85183296603458525</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.85176652353475069</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.85169979398320794</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.85755193320412415</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.85755191794408647</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.85755189701678436</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.85755187917989284</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.8575518561061477</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.85755184296756981</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.91734481083538666</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.91826107960063186</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9183360784207879</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.91841090101917366</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.91848554826965489</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.91856002103931444</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.91863432018851554</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9187084465709634</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.91878240103376707</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.91885618441750128</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.91892979755626603</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.88503198070811551</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.91907651640327803</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.91914962374789411</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.91922256412039649</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.91929533832340726</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.91936794715342829</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.91944039140089784</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.91951267185024776</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.89161778952501869</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.89258903553609503</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.89359165155551235</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.89462510640585091</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.89568884255328141</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.89678227640881103</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.89790479864907735</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.89905577455654495</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.90023454437896056</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.90144042370793842</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.90267270387651499</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.90393065237550496</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.90521351328848942</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.90652050774524395</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.90785083439342074</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.90920366988825652</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.91057816940009995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.91197346713951943</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.91338867689972847</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.91482289261609229</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.91627518894240445</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.917744621843682</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.91917089551107434</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.91904042297725863</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.9189106188996603</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.91878148496470113</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.91865302277381156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1598-451F-AF42-581163FB2424}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ENS_MAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$E$2:$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>0.97826074608608937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97833057735253026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97869161139116356</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97893699338834961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97947105434791837</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97970866775421783</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98003359851769234</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9799978939293833</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98049506920983409</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98077637191129874</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98142288824955526</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98151051027148362</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.981812879540646</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98290252685603408</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98227647949373809</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98257958224701603</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98220665656121098</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98330568486941472</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98358908208094398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98399097107248579</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98403503656579383</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.98436408503462181</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.98456047310811523</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98510317422157734</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9853590258644509</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98569230335716829</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98574086222401702</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.98612889325901254</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.98638718184938545</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.98692684474026748</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9871176502258453</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.98742294112009654</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.986998529605015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.98787484316549135</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.98815951937184199</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.98925580828824511</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.98887052912764406</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.98915695952580862</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.98966471693097646</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.98960262437667301</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.98990843762075442</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.98999403567387134</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99061952917378471</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9908842511012681</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.99123497192752352</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.99129609686730202</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9916358003425817</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.99186347830623145</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99237426330221634</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9926018926439848</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.99291222285006142</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99288919636168615</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99334705973052828</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99361257136143977</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99421444226919498</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99431412703298283</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99460279593910794</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99597225367398956</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99504115112955005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99532758386383124</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99473975401493031</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99601846215358825</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.99628789722194955</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.99667863262379963</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99670910567840765</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.99701958794983092</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99719653148212273</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.9977219529002781</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99796635876395889</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.9982861218215684</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99833218650915967</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.99869669096050073</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.99893952688746834</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99945249496427691</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.99963864255477131</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.999930111285527</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99962110582949459</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0003559254020331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1598-451F-AF42-581163FB2424}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="401748440"/>
+        <c:axId val="402832384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="401748440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402832384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="402832384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401748440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2341,6 +4002,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -2352,11 +4529,49 @@
 </chartsheet>
 </file>
 
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8664408" cy="6291513"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8665679" cy="6284429"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2666,8 +4881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GeneticProgrammingPortfolio/experiment-data/1 - math/with iflt/23-00-27/data.xlsx
+++ b/GeneticProgrammingPortfolio/experiment-data/1 - math/with iflt/23-00-27/data.xlsx
@@ -12,16 +12,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11910" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Math, with IFLT" sheetId="2" r:id="rId1"/>
-    <sheet name="Chart1" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet" sheetId="1" r:id="rId3"/>
+    <sheet name="Ensemble Testing" sheetId="2" r:id="rId1"/>
+    <sheet name="Best &amp; Average Individuals" sheetId="4" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>DJIA</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>MED-STDFIT</t>
+  </si>
+  <si>
+    <t>AVG_IND(4)</t>
+  </si>
+  <si>
+    <t>BEST_IND(3)</t>
   </si>
 </sst>
 </file>
@@ -137,13 +143,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Math, with</a:t>
+              <a:t>Ensemble Average</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> IFLT</a:t>
+              <a:t> &amp; Median Testing (With IFLT)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -187,7 +192,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet!$A$1</c:f>
+              <c:f>Data!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -210,7 +215,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet!$A$2:$A$79</c:f>
+              <c:f>Data!$A$2:$A$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="78"/>
@@ -463,7 +468,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet!$B$1</c:f>
+              <c:f>Data!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -486,7 +491,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet!$B$2:$B$79</c:f>
+              <c:f>Data!$B$2:$B$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="78"/>
@@ -739,7 +744,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet!$C$1</c:f>
+              <c:f>Data!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -762,7 +767,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet!$C$2:$C$79</c:f>
+              <c:f>Data!$C$2:$C$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="78"/>
@@ -1015,7 +1020,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet!$D$1</c:f>
+              <c:f>Data!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1048,7 +1053,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet!$D$2:$D$79</c:f>
+              <c:f>Data!$D$2:$D$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="78"/>
@@ -1301,7 +1306,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet!$E$1</c:f>
+              <c:f>Data!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1334,7 +1339,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet!$E$2:$E$79</c:f>
+              <c:f>Data!$E$2:$E$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="78"/>
@@ -1663,6 +1668,7 @@
         <c:axId val="432383360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1801,6 +1807,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Best &amp; Average Individual from</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Ensemble (With IFLT)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1841,7 +1876,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet!$A$1</c:f>
+              <c:f>Data!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1864,7 +1899,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet!$A$2:$A$79</c:f>
+              <c:f>Data!$A$2:$A$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="78"/>
@@ -2108,7 +2143,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1598-451F-AF42-581163FB2424}"/>
+              <c16:uniqueId val="{00000000-BE83-495F-8094-FF0FD63805DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2117,11 +2152,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet!$B$1</c:f>
+              <c:f>Data!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ENS_AVG</c:v>
+                  <c:v>AVG_IND(4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2140,243 +2175,243 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet!$B$2:$B$79</c:f>
+              <c:f>Data!$K$2:$K$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="78"/>
                 <c:pt idx="0">
-                  <c:v>0.92331621217424331</c:v>
+                  <c:v>0.95104327359190199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92273750533118382</c:v>
+                  <c:v>0.95103342437482097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92213745916064505</c:v>
+                  <c:v>0.95101025252284899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9214917192556219</c:v>
+                  <c:v>0.95097420969856405</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92081745758972722</c:v>
+                  <c:v>0.95092607678337904</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9200803290120193</c:v>
+                  <c:v>0.95086697210078697</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91929738847078468</c:v>
+                  <c:v>0.95079835509871102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91844057314955496</c:v>
+                  <c:v>0.95072202098536496</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91755140457305506</c:v>
+                  <c:v>0.95064008163269498</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91658537061231093</c:v>
+                  <c:v>0.95055492856791901</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91556790598465332</c:v>
+                  <c:v>0.950469175109797</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91444374683449103</c:v>
+                  <c:v>0.95038557662253098</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91324574175934958</c:v>
+                  <c:v>0.95030693029874203</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91199633158407278</c:v>
+                  <c:v>0.95023595857659804</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.91055572692629883</c:v>
+                  <c:v>0.95017518289101299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.90905291744548633</c:v>
+                  <c:v>0.95012679656009602</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.90745495558426592</c:v>
+                  <c:v>0.95129136085021804</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.90573718444537066</c:v>
+                  <c:v>0.95127000910613302</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.90382963053293119</c:v>
+                  <c:v>0.95126445734965503</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.90170330575667601</c:v>
+                  <c:v>0.95008353239292498</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.90907325405068728</c:v>
+                  <c:v>0.95011156540348696</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.91527240196673143</c:v>
+                  <c:v>0.95015343405362995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.91964983214514417</c:v>
+                  <c:v>0.95020728881981098</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.92278396523306006</c:v>
+                  <c:v>0.95027084977492704</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.92503281619038169</c:v>
+                  <c:v>0.95034152587626597</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.92668422034292908</c:v>
+                  <c:v>0.95041654172258805</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.92790044056073762</c:v>
+                  <c:v>0.95049306194343797</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.92883741921802798</c:v>
+                  <c:v>0.95056830481545795</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.92955599890470386</c:v>
+                  <c:v>0.95063963893744596</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.93013661301700601</c:v>
+                  <c:v>0.95070465945555205</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.93058612616463476</c:v>
+                  <c:v>0.95076124301792697</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.93095837035331452</c:v>
+                  <c:v>0.95080758300944401</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.93532386048393734</c:v>
+                  <c:v>0.95084220841851996</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.93563349832491505</c:v>
+                  <c:v>0.950863990775899</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.9358717754486382</c:v>
+                  <c:v>0.95087214394222597</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.93612653426307602</c:v>
+                  <c:v>0.95086622115833697</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.93627645322263875</c:v>
+                  <c:v>0.95084611282411202</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.93644537203290412</c:v>
+                  <c:v>0.95081204709328704</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.9366131974188211</c:v>
+                  <c:v>0.95076459373947197</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.93673897142798801</c:v>
+                  <c:v>0.95070467005002401</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.93687609393807847</c:v>
+                  <c:v>0.95063354593068095</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.93699462201654293</c:v>
+                  <c:v>0.95055284414514396</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.9371387111102365</c:v>
+                  <c:v>0.95046453085023397</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.93771963547728931</c:v>
+                  <c:v>0.95037089147324505</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.93738020774617148</c:v>
+                  <c:v>0.95027448761986399</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.93748474464465714</c:v>
+                  <c:v>0.95017809212803195</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.93760320001149566</c:v>
+                  <c:v>0.95008460152306096</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.93771488717916662</c:v>
+                  <c:v>0.94999692779142497</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.93784313056399116</c:v>
+                  <c:v>0.94991787426918695</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.93795580496911057</c:v>
+                  <c:v>0.94985000314347501</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.93807387496996875</c:v>
+                  <c:v>0.94979550416566805</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.94063584562636204</c:v>
+                  <c:v>0.95083386223808497</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.94066407598398027</c:v>
+                  <c:v>0.95080641835940105</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.94072908027179458</c:v>
+                  <c:v>0.95079551377898797</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.94077668688751437</c:v>
+                  <c:v>0.94973600432511596</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.94086565757988772</c:v>
+                  <c:v>0.94976131163461397</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.94097260808031724</c:v>
+                  <c:v>0.94980062249436303</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.9411432471574166</c:v>
+                  <c:v>0.94985189766161904</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.94119722298009045</c:v>
+                  <c:v>0.94991268183592303</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.94131920579755279</c:v>
+                  <c:v>0.94998023242873497</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.94139917106106696</c:v>
+                  <c:v>0.95005165334888197</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.94157971941141805</c:v>
+                  <c:v>0.95012402360400505</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.94170961920531915</c:v>
+                  <c:v>0.95019451230234997</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.94184859574845259</c:v>
+                  <c:v>0.95026047419156101</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.94196987040938607</c:v>
+                  <c:v>0.95031952276713205</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.94210760994037113</c:v>
+                  <c:v>0.95036958080422096</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.94224021120408985</c:v>
+                  <c:v>0.95040891056292898</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.94239176133130742</c:v>
+                  <c:v>0.95043612764733099</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.94252985209218809</c:v>
+                  <c:v>0.95045020344216502</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.94267326077877167</c:v>
+                  <c:v>0.95045046119952503</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.94280250314812486</c:v>
+                  <c:v>0.95043657028123996</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.94294965762037186</c:v>
+                  <c:v>0.95040854192129998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.94309142998301076</c:v>
+                  <c:v>0.95036672833242797</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.94324750851311134</c:v>
+                  <c:v>0.95031182523426305</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.94338751405589516</c:v>
+                  <c:v>0.95024487612644504</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.94353393045676437</c:v>
+                  <c:v>0.95016727506719001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.94364886371924983</c:v>
+                  <c:v>0.95008076354061399</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.94381998027905123</c:v>
+                  <c:v>0.94998741638216899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2384,7 +2419,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1598-451F-AF42-581163FB2424}"/>
+              <c16:uniqueId val="{00000001-BE83-495F-8094-FF0FD63805DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2393,11 +2428,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet!$C$1</c:f>
+              <c:f>Data!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ENS_MED</c:v>
+                  <c:v>BEST_IND(3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2416,243 +2451,243 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet!$C$2:$C$79</c:f>
+              <c:f>Data!$L$2:$L$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="78"/>
                 <c:pt idx="0">
-                  <c:v>0.9315075980855666</c:v>
+                  <c:v>0.91568111042655498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93148823528785407</c:v>
+                  <c:v>0.915762463107887</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93146731523028503</c:v>
+                  <c:v>0.91584360648490304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93144486478590149</c:v>
+                  <c:v>0.91592454169376603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93142092730347692</c:v>
+                  <c:v>0.91600526986150099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93139556342603502</c:v>
+                  <c:v>0.91608579210607399</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93136885410431081</c:v>
+                  <c:v>0.91616610953647604</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93134090244859546</c:v>
+                  <c:v>0.91624622325279803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9313118317265201</c:v>
+                  <c:v>0.91632613434631105</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93128177992537986</c:v>
+                  <c:v>0.91640584389954305</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.93125089400510974</c:v>
+                  <c:v>0.91648535298635803</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.93121932682134334</c:v>
+                  <c:v>0.91656466267202896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.93118723687586447</c:v>
+                  <c:v>0.91664377401331598</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9311547881711657</c:v>
+                  <c:v>0.91672268805854196</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.93112214714756636</c:v>
+                  <c:v>0.91680140584766701</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.9310894762199996</c:v>
+                  <c:v>0.91687992841236199</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.93105692646947313</c:v>
+                  <c:v>0.916958256776083</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93102463281084702</c:v>
+                  <c:v>0.91703639195414399</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93099271278091433</c:v>
+                  <c:v>0.91711433495379102</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.93096126698518344</c:v>
+                  <c:v>0.917192086774272</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.93093037804605139</c:v>
+                  <c:v>0.91726964840691105</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.93090010667063972</c:v>
+                  <c:v>0.91734702083517805</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.93087048654065174</c:v>
+                  <c:v>0.91742420503475997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.93084152127902842</c:v>
+                  <c:v>0.91750120197362905</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.93081318535424074</c:v>
+                  <c:v>0.91757801261211702</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.93078542772960171</c:v>
+                  <c:v>0.91765463790297996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.93075817513888282</c:v>
+                  <c:v>0.91773107879146898</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.93073133279945508</c:v>
+                  <c:v>0.91780733621539601</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.93070478326599881</c:v>
+                  <c:v>0.91788341110520799</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.93067838630972088</c:v>
+                  <c:v>0.91795930438404505</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.93065198218615275</c:v>
+                  <c:v>0.91803501696781498</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.93062539792464982</c:v>
+                  <c:v>0.91811054976525297</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.93146075831023789</c:v>
+                  <c:v>0.91818590367799402</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.93141763103829289</c:v>
+                  <c:v>0.91826107960063097</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.93137391405281234</c:v>
+                  <c:v>0.91833607842078702</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.93132951748540371</c:v>
+                  <c:v>0.918410901019173</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.93128435285175504</c:v>
+                  <c:v>0.91848554826965401</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.93123833611662743</c:v>
+                  <c:v>0.918560021039314</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.93151714173294664</c:v>
+                  <c:v>0.91863432018851499</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.93202908264495243</c:v>
+                  <c:v>0.91870844657096296</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.93245057176046853</c:v>
+                  <c:v>0.91878240103376696</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.93279800563779769</c:v>
+                  <c:v>0.91885618441750105</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.9330843821585818</c:v>
+                  <c:v>0.91892979755626603</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.93498775513899679</c:v>
+                  <c:v>0.91900324127774702</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.93351346033295368</c:v>
+                  <c:v>0.91907651640327803</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.93367128145888889</c:v>
+                  <c:v>0.919149623747894</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.93379906671153845</c:v>
+                  <c:v>0.91922256412039605</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.93390134975202788</c:v>
+                  <c:v>0.91929533832340704</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.93398187860502824</c:v>
+                  <c:v>0.91936794715342796</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.93404377224700486</c:v>
+                  <c:v>0.91944039140089695</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.93408964331217548</c:v>
+                  <c:v>0.91951267185024699</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.93711017722687595</c:v>
+                  <c:v>0.91958478927995901</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.93721701608002239</c:v>
+                  <c:v>0.91965674446261902</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.937303524483866</c:v>
+                  <c:v>0.91972853816497402</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.93737244932420061</c:v>
+                  <c:v>0.91980017114798596</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.93742617060930122</c:v>
+                  <c:v>0.91987164416688705</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.93746676512331339</c:v>
+                  <c:v>0.91994295797123105</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.93749605804908609</c:v>
+                  <c:v>0.92001411330494998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.93751566497130112</c:v>
+                  <c:v>0.92008511090640199</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.93752702614668226</c:v>
+                  <c:v>0.92015595150842999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.93753143452588239</c:v>
+                  <c:v>0.92022663583840703</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.93753005870138661</c:v>
+                  <c:v>0.92029716461829303</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.93752396171524222</c:v>
+                  <c:v>0.92036753856468001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.93751411647308158</c:v>
+                  <c:v>0.920437758388849</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.93750141836435419</c:v>
+                  <c:v>0.92050782479681503</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.93748669557355924</c:v>
+                  <c:v>0.92057773848937596</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.93747071747648847</c:v>
+                  <c:v>0.92064750016216601</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.93745420144363345</c:v>
+                  <c:v>0.92071711050570004</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.93747155212269695</c:v>
+                  <c:v>0.92078657020542398</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.93789738598900729</c:v>
+                  <c:v>0.92085587994175999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.93832764137398716</c:v>
+                  <c:v>0.92092504039015699</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.9387621877050325</c:v>
+                  <c:v>0.92099405222113295</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.93920089493134118</c:v>
+                  <c:v>0.92106291610032498</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.93964363359453795</c:v>
+                  <c:v>0.92113163268853204</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.94009027489836205</c:v>
+                  <c:v>0.92120020264176306</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.94054069077734515</c:v>
+                  <c:v>0.92126862661127695</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.94099475396443477</c:v>
+                  <c:v>0.92133690524363498</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.94145233805748862</c:v>
+                  <c:v>0.92140503918073502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2660,559 +2695,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1598-451F-AF42-581163FB2424}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ENS_MIN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet!$D$2:$D$79</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
-                <c:pt idx="0">
-                  <c:v>0.85327853243416119</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.85321910191239991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85315934958045636</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85309927703077215</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.85303888584808818</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.85297817760949168</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.85291715388446343</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.85285581623492346</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.85279416621527793</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.85273220537246441</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.85266993524599766</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.85260735736801463</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.85254447326331939</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.85248128444942761</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.85241779243661076</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.85235399872794027</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.85228990481933076</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.85222551219958365</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.85216082235043</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.8520958367465733</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.85203055685573181</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.85196498413868071</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.8518991200492938</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.85183296603458525</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.85176652353475069</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.85169979398320794</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.85755193320412415</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.85755191794408647</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.85755189701678436</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.85755187917989284</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.8575518561061477</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.85755184296756981</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.91734481083538666</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.91826107960063186</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.9183360784207879</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.91841090101917366</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.91848554826965489</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.91856002103931444</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.91863432018851554</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.9187084465709634</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.91878240103376707</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.91885618441750128</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.91892979755626603</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.88503198070811551</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.91907651640327803</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.91914962374789411</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.91922256412039649</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.91929533832340726</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.91936794715342829</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.91944039140089784</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.91951267185024776</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.89161778952501869</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.89258903553609503</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.89359165155551235</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.89462510640585091</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.89568884255328141</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.89678227640881103</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.89790479864907735</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.89905577455654495</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.90023454437896056</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.90144042370793842</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.90267270387651499</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.90393065237550496</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.90521351328848942</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.90652050774524395</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.90785083439342074</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.90920366988825652</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.91057816940009995</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.91197346713951943</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.91338867689972847</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.91482289261609229</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.91627518894240445</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.917744621843682</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.91917089551107434</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.91904042297725863</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.9189106188996603</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.91878148496470113</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.91865302277381156</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1598-451F-AF42-581163FB2424}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ENS_MAX</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet!$E$2:$E$79</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
-                <c:pt idx="0">
-                  <c:v>0.97826074608608937</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97833057735253026</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97869161139116356</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97893699338834961</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97947105434791837</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97970866775421783</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98003359851769234</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9799978939293833</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.98049506920983409</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.98077637191129874</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.98142288824955526</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.98151051027148362</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.981812879540646</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.98290252685603408</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.98227647949373809</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.98257958224701603</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.98220665656121098</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.98330568486941472</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.98358908208094398</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.98399097107248579</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.98403503656579383</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.98436408503462181</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.98456047310811523</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.98510317422157734</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.9853590258644509</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.98569230335716829</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.98574086222401702</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.98612889325901254</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.98638718184938545</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.98692684474026748</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.9871176502258453</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.98742294112009654</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.986998529605015</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.98787484316549135</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.98815951937184199</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.98925580828824511</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.98887052912764406</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.98915695952580862</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.98966471693097646</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.98960262437667301</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.98990843762075442</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.98999403567387134</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.99061952917378471</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.9908842511012681</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.99123497192752352</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.99129609686730202</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.9916358003425817</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.99186347830623145</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.99237426330221634</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.9926018926439848</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.99291222285006142</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.99288919636168615</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.99334705973052828</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.99361257136143977</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.99421444226919498</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.99431412703298283</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.99460279593910794</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.99597225367398956</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.99504115112955005</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.99532758386383124</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.99473975401493031</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.99601846215358825</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.99628789722194955</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.99667863262379963</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.99670910567840765</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.99701958794983092</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.99719653148212273</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.9977219529002781</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.99796635876395889</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.9982861218215684</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.99833218650915967</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.99869669096050073</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.99893952688746834</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.99945249496427691</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.99963864255477131</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.999930111285527</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.99962110582949459</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.0003559254020331</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1598-451F-AF42-581163FB2424}"/>
+              <c16:uniqueId val="{00000002-BE83-495F-8094-FF0FD63805DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3225,11 +2708,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="401748440"/>
-        <c:axId val="402832384"/>
+        <c:axId val="411383104"/>
+        <c:axId val="411374904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="401748440"/>
+        <c:axId val="411383104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3272,7 +2755,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402832384"/>
+        <c:crossAx val="411374904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3280,9 +2763,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402832384"/>
+        <c:axId val="411374904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.05"/>
+          <c:min val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3331,7 +2816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401748440"/>
+        <c:crossAx val="411383104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4533,7 +4018,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4571,7 +4056,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665679" cy="6284429"/>
+    <xdr:ext cx="8664408" cy="6291513"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4879,15 +4364,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E79"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K1" activeCellId="1" sqref="A1:A79 K1:L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4915,8 +4400,14 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.84026811000000001</v>
       </c>
@@ -4948,8 +4439,14 @@
         <f>SUM(G2:G79)</f>
         <v>0.1905245488755502</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>0.95104327359190199</v>
+      </c>
+      <c r="L2">
+        <v>0.91568111042655498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.83498734399999996</v>
       </c>
@@ -4973,8 +4470,14 @@
         <f t="shared" si="1"/>
         <v>9.3124220193502374E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>0.95103342437482097</v>
+      </c>
+      <c r="L3">
+        <v>0.915762463107887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.85444194600000001</v>
       </c>
@@ -4998,8 +4501,14 @@
         <f t="shared" si="1"/>
         <v>5.9329075050617392E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>0.95101025252284899</v>
+      </c>
+      <c r="L4">
+        <v>0.91584360648490304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.86634980399999995</v>
       </c>
@@ -5023,8 +4532,14 @@
         <f t="shared" si="1"/>
         <v>4.2373669387202172E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>0.95097420969856405</v>
+      </c>
+      <c r="L5">
+        <v>0.91592454169376603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.86080725199999997</v>
       </c>
@@ -5048,8 +4563,14 @@
         <f t="shared" si="1"/>
         <v>4.9862911398648709E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>0.95092607678337904</v>
+      </c>
+      <c r="L6">
+        <v>0.91600526986150099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.83614498199999998</v>
       </c>
@@ -5073,8 +4594,14 @@
         <f t="shared" si="1"/>
         <v>9.0726732619977324E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>0.95086697210078697</v>
+      </c>
+      <c r="L7">
+        <v>0.91608579210607399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.84682125600000002</v>
       </c>
@@ -5098,8 +4625,14 @@
         <f t="shared" si="1"/>
         <v>7.1482963452080567E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>0.95079835509871102</v>
+      </c>
+      <c r="L8">
+        <v>0.91616610953647604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.83154587999999996</v>
       </c>
@@ -5123,8 +4656,14 @@
         <f t="shared" si="1"/>
         <v>9.9590465055156806E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>0.95072202098536496</v>
+      </c>
+      <c r="L9">
+        <v>0.91624622325279803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.82724681099999997</v>
       </c>
@@ -5148,8 +4687,14 @@
         <f t="shared" si="1"/>
         <v>1.0829528538811065E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>0.95064008163269498</v>
+      </c>
+      <c r="L10">
+        <v>0.91632613434631105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.820568721</v>
       </c>
@@ -5173,8 +4718,14 @@
         <f t="shared" si="1"/>
         <v>1.2257381416614633E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>0.95055492856791901</v>
+      </c>
+      <c r="L11">
+        <v>0.91640584389954305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.83020295200000005</v>
       </c>
@@ -5198,8 +4749,14 @@
         <f t="shared" si="1"/>
         <v>1.0210686583468012E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>0.950469175109797</v>
+      </c>
+      <c r="L12">
+        <v>0.91648535298635803</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.80361808499999998</v>
       </c>
@@ -5223,8 +4780,14 @@
         <f t="shared" si="1"/>
         <v>1.6282076914348947E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>0.95038557662253098</v>
+      </c>
+      <c r="L13">
+        <v>0.91656466267202896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.80763326899999999</v>
       </c>
@@ -5248,8 +4811,14 @@
         <f t="shared" si="1"/>
         <v>1.5265582977870151E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>0.95030693029874203</v>
+      </c>
+      <c r="L14">
+        <v>0.91664377401331598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.82765563900000005</v>
       </c>
@@ -5273,8 +4842,14 @@
         <f t="shared" si="1"/>
         <v>1.0712073879155199E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>0.95023595857659804</v>
+      </c>
+      <c r="L15">
+        <v>0.91672268805854196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.82657704700000001</v>
       </c>
@@ -5298,8 +4873,14 @@
         <f t="shared" si="1"/>
         <v>1.0929677964864678E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>0.95017518289101299</v>
+      </c>
+      <c r="L16">
+        <v>0.91680140584766701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.84360672999999997</v>
       </c>
@@ -5323,8 +4904,14 @@
         <f t="shared" si="1"/>
         <v>7.6532308861928591E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>0.95012679656009602</v>
+      </c>
+      <c r="L17">
+        <v>0.91687992841236199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.86945043700000002</v>
       </c>
@@ -5348,8 +4935,14 @@
         <f t="shared" si="1"/>
         <v>3.7953595447523017E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>0.95129136085021804</v>
+      </c>
+      <c r="L18">
+        <v>0.916958256776083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.87061997400000002</v>
       </c>
@@ -5373,8 +4966,14 @@
         <f t="shared" si="1"/>
         <v>3.6487228060548362E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>0.95127000910613302</v>
+      </c>
+      <c r="L19">
+        <v>0.91703639195414399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.88099791400000005</v>
       </c>
@@ -5398,8 +4997,14 @@
         <f t="shared" si="1"/>
         <v>2.4994799051441083E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>0.95126445734965503</v>
+      </c>
+      <c r="L20">
+        <v>0.91711433495379102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.89276637999999997</v>
       </c>
@@ -5423,8 +5028,14 @@
         <f t="shared" si="1"/>
         <v>1.458849391810938E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>0.95008353239292498</v>
+      </c>
+      <c r="L21">
+        <v>0.917192086774272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.89563412499999995</v>
       </c>
@@ -5448,8 +5059,14 @@
         <f t="shared" si="1"/>
         <v>1.2458254790908955E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>0.95011156540348696</v>
+      </c>
+      <c r="L22">
+        <v>0.91726964840691105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.89966035799999999</v>
       </c>
@@ -5473,8 +5090,14 @@
         <f t="shared" si="1"/>
         <v>9.7592189700473626E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>0.95015343405362995</v>
+      </c>
+      <c r="L23">
+        <v>0.91734702083517805</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.89541313700000003</v>
       </c>
@@ -5498,8 +5121,14 @@
         <f t="shared" si="1"/>
         <v>1.2572236364479545E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>0.95020728881981098</v>
+      </c>
+      <c r="L24">
+        <v>0.91742420503475997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.88205695699999997</v>
       </c>
@@ -5523,8 +5152,14 @@
         <f t="shared" si="1"/>
         <v>2.3799337118946577E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>0.95027084977492704</v>
+      </c>
+      <c r="L25">
+        <v>0.91750120197362905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.90050096300000004</v>
       </c>
@@ -5548,8 +5183,14 @@
         <f t="shared" si="1"/>
         <v>9.1883082405292912E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>0.95034152587626597</v>
+      </c>
+      <c r="L26">
+        <v>0.91757801261211702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.90680932299999994</v>
       </c>
@@ -5573,8 +5214,14 @@
         <f t="shared" si="1"/>
         <v>5.7485359800483213E-4</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>0.95041654172258805</v>
+      </c>
+      <c r="L27">
+        <v>0.91765463790297996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.90804770599999995</v>
       </c>
@@ -5598,8 +5245,14 @@
         <f t="shared" si="1"/>
         <v>5.1576540850815087E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>0.95049306194343797</v>
+      </c>
+      <c r="L28">
+        <v>0.91773107879146898</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.90690621800000004</v>
       </c>
@@ -5623,8 +5276,14 @@
         <f t="shared" si="1"/>
         <v>5.6763609520721152E-4</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>0.95056830481545795</v>
+      </c>
+      <c r="L29">
+        <v>0.91780733621539601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.90278393999999995</v>
       </c>
@@ -5648,8 +5307,14 @@
         <f t="shared" si="1"/>
         <v>7.7957348868447406E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>0.95063963893744596</v>
+      </c>
+      <c r="L30">
+        <v>0.91788341110520799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.93002922099999996</v>
       </c>
@@ -5673,8 +5338,14 @@
         <f t="shared" si="1"/>
         <v>4.2141559934506147E-7</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>0.95070465945555205</v>
+      </c>
+      <c r="L31">
+        <v>0.91795930438404505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.94341940000000002</v>
       </c>
@@ -5698,8 +5369,14 @@
         <f t="shared" si="1"/>
         <v>1.630069576333446E-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>0.95076124301792697</v>
+      </c>
+      <c r="L32">
+        <v>0.91803501696781498</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.94140925799999997</v>
       </c>
@@ -5723,8 +5400,14 @@
         <f t="shared" si="1"/>
         <v>1.1629163812473093E-4</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>0.95080758300944401</v>
+      </c>
+      <c r="L33">
+        <v>0.91811054976525297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.93787174900000003</v>
       </c>
@@ -5748,8 +5431,14 @@
         <f t="shared" ref="G34:G65" si="3">ABS(C34-A34)^2</f>
         <v>4.1100801624216859E-5</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>0.95084220841851996</v>
+      </c>
+      <c r="L34">
+        <v>0.91818590367799402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.95470849099999999</v>
       </c>
@@ -5773,8 +5462,14 @@
         <f t="shared" si="3"/>
         <v>5.4246415775585091E-4</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>0.950863990775899</v>
+      </c>
+      <c r="L35">
+        <v>0.91826107960063097</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.95269239999999999</v>
       </c>
@@ -5798,8 +5493,14 @@
         <f t="shared" si="3"/>
         <v>4.5447784308043772E-4</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>0.95087214394222597</v>
+      </c>
+      <c r="L36">
+        <v>0.91833607842078702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.94485072299999995</v>
       </c>
@@ -5823,8 +5524,14 @@
         <f t="shared" si="3"/>
         <v>1.8282299856794764E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>0.95086622115833697</v>
+      </c>
+      <c r="L37">
+        <v>0.918410901019173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.95889366600000003</v>
       </c>
@@ -5848,8 +5555,14 @@
         <f t="shared" si="3"/>
         <v>7.6227417251785402E-4</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>0.95084611282411202</v>
+      </c>
+      <c r="L38">
+        <v>0.91848554826965401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.96649140600000005</v>
       </c>
@@ -5873,8 +5586,14 @@
         <f t="shared" si="3"/>
         <v>1.2427789362019538E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>0.95081204709328704</v>
+      </c>
+      <c r="L39">
+        <v>0.918560021039314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.96219318799999998</v>
       </c>
@@ -5898,8 +5617,14 @@
         <f t="shared" si="3"/>
         <v>9.4101981457839689E-4</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>0.95076459373947197</v>
+      </c>
+      <c r="L40">
+        <v>0.91863432018851499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.96184045699999998</v>
       </c>
@@ -5923,8 +5648,14 @@
         <f t="shared" si="3"/>
         <v>8.8871804093678666E-4</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>0.95070467005002401</v>
+      </c>
+      <c r="L41">
+        <v>0.91870844657096296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.96582674199999996</v>
       </c>
@@ -5948,8 +5679,14 @@
         <f t="shared" si="3"/>
         <v>1.1139687398581837E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>0.95063354593068095</v>
+      </c>
+      <c r="L42">
+        <v>0.91878240103376696</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.950540316</v>
       </c>
@@ -5973,8 +5710,14 @@
         <f t="shared" si="3"/>
         <v>3.1478957698871136E-4</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>0.95055284414514396</v>
+      </c>
+      <c r="L43">
+        <v>0.91885618441750105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.95289723900000001</v>
       </c>
@@ -5998,8 +5741,14 @@
         <f t="shared" si="3"/>
         <v>3.9254929621853208E-4</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>0.95046453085023397</v>
+      </c>
+      <c r="L44">
+        <v>0.91892979755626603</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.94813834500000005</v>
       </c>
@@ -6023,8 +5772,14 @@
         <f t="shared" si="3"/>
         <v>1.7293801369232172E-4</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>0.95037089147324505</v>
+      </c>
+      <c r="L45">
+        <v>0.91900324127774702</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.92653675999999996</v>
       </c>
@@ -6048,8 +5803,14 @@
         <f t="shared" si="3"/>
         <v>4.8674347535836584E-5</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>0.95027448761986399</v>
+      </c>
+      <c r="L46">
+        <v>0.91907651640327803</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.90929713899999998</v>
       </c>
@@ -6073,8 +5834,14 @@
         <f t="shared" si="3"/>
         <v>5.9409882060621128E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>0.95017809212803195</v>
+      </c>
+      <c r="L47">
+        <v>0.919149623747894</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.92950650000000001</v>
       </c>
@@ -6098,8 +5865,14 @@
         <f t="shared" si="3"/>
         <v>1.8426128973007912E-5</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>0.95008460152306096</v>
+      </c>
+      <c r="L48">
+        <v>0.91922256412039605</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.93005811999999999</v>
       </c>
@@ -6123,8 +5896,14 @@
         <f t="shared" si="3"/>
         <v>1.4770414926872342E-5</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>0.94999692779142497</v>
+      </c>
+      <c r="L49">
+        <v>0.91929533832340704</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.95110808499999999</v>
       </c>
@@ -6148,8 +5927,14 @@
         <f t="shared" si="3"/>
         <v>2.9330694548317142E-4</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>0.94991787426918695</v>
+      </c>
+      <c r="L50">
+        <v>0.91936794715342796</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.95073325500000005</v>
       </c>
@@ -6173,8 +5958,14 @@
         <f t="shared" si="3"/>
         <v>2.7853883456252423E-4</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>0.94985000314347501</v>
+      </c>
+      <c r="L51">
+        <v>0.91944039140089695</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.958472938</v>
       </c>
@@ -6198,8 +5989,14 @@
         <f t="shared" si="3"/>
         <v>5.9454505983329146E-4</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>0.94979550416566805</v>
+      </c>
+      <c r="L52">
+        <v>0.91951267185024699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.95582703099999999</v>
       </c>
@@ -6223,8 +6020,14 @@
         <f t="shared" si="3"/>
         <v>3.5032061516450771E-4</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>0.95083386223808497</v>
+      </c>
+      <c r="L53">
+        <v>0.91958478927995901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.95748529199999999</v>
       </c>
@@ -6248,8 +6051,14 @@
         <f t="shared" si="3"/>
         <v>4.1080300876834369E-4</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>0.95080641835940105</v>
+      </c>
+      <c r="L54">
+        <v>0.91965674446261902</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.95758728599999998</v>
       </c>
@@ -6273,8 +6082,14 @@
         <f t="shared" si="3"/>
         <v>4.1143098124339785E-4</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>0.95079551377898797</v>
+      </c>
+      <c r="L55">
+        <v>0.91972853816497402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.956320854</v>
       </c>
@@ -6298,8 +6113,14 @@
         <f t="shared" si="3"/>
         <v>3.590420397578562E-4</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>0.94973600432511596</v>
+      </c>
+      <c r="L56">
+        <v>0.91980017114798596</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.94964276400000003</v>
       </c>
@@ -6323,8 +6144,14 @@
         <f t="shared" si="3"/>
         <v>1.4924515407366572E-4</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>0.94976131163461397</v>
+      </c>
+      <c r="L57">
+        <v>0.91987164416688705</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.96395854299999995</v>
       </c>
@@ -6348,8 +6175,14 @@
         <f t="shared" si="3"/>
         <v>7.0181429506769894E-4</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <v>0.94980062249436303</v>
+      </c>
+      <c r="L58">
+        <v>0.91994295797123105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.95047232000000004</v>
       </c>
@@ -6373,8 +6206,14 @@
         <f t="shared" si="3"/>
         <v>1.6838337421873706E-4</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>0.94985189766161904</v>
+      </c>
+      <c r="L59">
+        <v>0.92001411330494998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.92905262399999999</v>
       </c>
@@ -6398,8 +6237,14 @@
         <f t="shared" si="3"/>
         <v>7.1623062481921535E-5</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>0.94991268183592303</v>
+      </c>
+      <c r="L60">
+        <v>0.92008511090640199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.96049752899999996</v>
       </c>
@@ -6423,8 +6268,14 @@
         <f t="shared" si="3"/>
         <v>5.2764400133427651E-4</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>0.94998023242873497</v>
+      </c>
+      <c r="L61">
+        <v>0.92015595150842999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.95054286600000004</v>
       </c>
@@ -6448,8 +6299,14 @@
         <f t="shared" si="3"/>
         <v>1.6929734900565944E-4</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>0.95005165334888197</v>
+      </c>
+      <c r="L62">
+        <v>0.92022663583840703</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.93673026000000004</v>
       </c>
@@ -6473,8 +6330,14 @@
         <f t="shared" si="3"/>
         <v>6.3967796273965679E-7</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <v>0.95012402360400505</v>
+      </c>
+      <c r="L63">
+        <v>0.92029716461829303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.93029610699999998</v>
       </c>
@@ -6498,8 +6361,14 @@
         <f t="shared" si="3"/>
         <v>5.2241883784649369E-5</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>0.95019451230234997</v>
+      </c>
+      <c r="L64">
+        <v>0.92036753856468001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.93730397899999995</v>
       </c>
@@ -6523,8 +6392,14 @@
         <f t="shared" si="3"/>
         <v>4.4157757593132164E-8</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>0.95026047419156101</v>
+      </c>
+      <c r="L65">
+        <v>0.920437758388849</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.91099449700000001</v>
       </c>
@@ -6548,8 +6423,14 @@
         <f t="shared" ref="G66:G79" si="5">ABS(C66-A66)^2</f>
         <v>7.0261688021605573E-4</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>0.95031952276713205</v>
+      </c>
+      <c r="L66">
+        <v>0.92050782479681503</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.91977367399999999</v>
       </c>
@@ -6573,8 +6454,14 @@
         <f t="shared" si="5"/>
         <v>3.1375113326537543E-4</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>0.95036958080422096</v>
+      </c>
+      <c r="L67">
+        <v>0.92057773848937596</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.933067808</v>
       </c>
@@ -6598,8 +6485,14 @@
         <f t="shared" si="5"/>
         <v>1.9385611858151975E-5</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>0.95040891056292898</v>
+      </c>
+      <c r="L68">
+        <v>0.92064750016216601</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.95212208099999995</v>
       </c>
@@ -6623,8 +6516,14 @@
         <f t="shared" si="5"/>
         <v>2.151466906800744E-4</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>0.95043612764733099</v>
+      </c>
+      <c r="L69">
+        <v>0.92071711050570004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.93059699100000004</v>
       </c>
@@ -6648,8 +6547,14 @@
         <f t="shared" si="5"/>
         <v>4.7259590629695789E-5</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>0.95045020344216502</v>
+      </c>
+      <c r="L70">
+        <v>0.92078657020542398</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.89937902300000006</v>
       </c>
@@ -6673,8 +6578,14 @@
         <f t="shared" si="5"/>
         <v>1.4836642873529225E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>0.95045046119952503</v>
+      </c>
+      <c r="L71">
+        <v>0.92085587994175999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.90983941000000002</v>
       </c>
@@ -6698,8 +6609,14 @@
         <f t="shared" si="5"/>
         <v>8.1157932681782572E-4</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>0.95043657028123996</v>
+      </c>
+      <c r="L72">
+        <v>0.92092504039015699</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.92391890099999996</v>
       </c>
@@ -6723,8 +6640,14 @@
         <f t="shared" si="5"/>
         <v>2.2032316020779587E-4</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>0.95040854192129998</v>
+      </c>
+      <c r="L73">
+        <v>0.92099405222113295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.93967195199999998</v>
       </c>
@@ -6748,8 +6671,14 @@
         <f t="shared" si="5"/>
         <v>2.2189476193341937E-7</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>0.95036672833242797</v>
+      </c>
+      <c r="L74">
+        <v>0.92106291610032498</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.93538478300000005</v>
       </c>
@@ -6773,8 +6702,14 @@
         <f t="shared" si="5"/>
         <v>1.8137808386595822E-5</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>0.95031182523426305</v>
+      </c>
+      <c r="L75">
+        <v>0.92113163268853204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.933353392</v>
       </c>
@@ -6798,8 +6733,14 @@
         <f t="shared" si="5"/>
         <v>4.5385591186243067E-5</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>0.95024487612644504</v>
+      </c>
+      <c r="L76">
+        <v>0.92120020264176306</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.94973285900000004</v>
       </c>
@@ -6823,8 +6764,14 @@
         <f t="shared" si="5"/>
         <v>8.4495956633586457E-5</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>0.95016727506719001</v>
+      </c>
+      <c r="L77">
+        <v>0.92126862661127695</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.93977904599999995</v>
       </c>
@@ -6848,8 +6795,14 @@
         <f t="shared" si="5"/>
         <v>1.4779458547902538E-6</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>0.95008076354061399</v>
+      </c>
+      <c r="L78">
+        <v>0.92133690524363498</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.92457846499999996</v>
       </c>
@@ -6872,6 +6825,12 @@
       <c r="G79">
         <f t="shared" si="5"/>
         <v>2.8472759196024187E-4</v>
+      </c>
+      <c r="K79">
+        <v>0.94998741638216899</v>
+      </c>
+      <c r="L79">
+        <v>0.92140503918073502</v>
       </c>
     </row>
   </sheetData>
